--- a/974-F.400/T-SP-F.400-2011.xlsx
+++ b/974-F.400/T-SP-F.400-2011.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mulgogi/src/ituob/service-publications-data/974-F.400/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3E8FD3-AB00-724A-B022-566C622A6434}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516F966F-6C2E-964A-86B6-8854D80D3741}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T-SP-M.1400-2014" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8805" uniqueCount="1839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8806" uniqueCount="1840">
   <si>
     <t>METADATA</t>
   </si>
@@ -5558,6 +5558,9 @@
   </si>
   <si>
     <t>Express Mail Service</t>
+  </si>
+  <si>
+    <t>type=array</t>
   </si>
 </sst>
 </file>
@@ -6486,9 +6489,9 @@
   <dimension ref="A1:X1684"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K40" sqref="K40"/>
-      <selection pane="bottomLeft" activeCell="J225" sqref="J225"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6801,6 +6804,9 @@
       <c r="A40" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B40" s="2" t="s">
+        <v>1839</v>
+      </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
